--- a/incomeStatement.xlsx
+++ b/incomeStatement.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>Account Number</t>
+  </si>
   <si>
     <t>Account Title</t>
   </si>
@@ -25,40 +28,97 @@
     <t>Credit</t>
   </si>
   <si>
+    <t>4001A0</t>
+  </si>
+  <si>
+    <t>SALES - MRMJ (SURIGAO)</t>
+  </si>
+  <si>
+    <t>4002A1</t>
+  </si>
+  <si>
     <t>INTEREST INCOME - SURIGAO</t>
   </si>
   <si>
+    <t>5005A0</t>
+  </si>
+  <si>
     <t>ADMIN FEE - SURIGAO</t>
   </si>
   <si>
+    <t>5005AD</t>
+  </si>
+  <si>
     <t>CFB SALARIES AND WAGES -  SURIGAO</t>
   </si>
   <si>
+    <t>5008A0</t>
+  </si>
+  <si>
     <t>GFO - SURIGAO</t>
   </si>
   <si>
+    <t>5008AD</t>
+  </si>
+  <si>
     <t>DEMINIMIS - SURIGAO</t>
   </si>
   <si>
+    <t>5008C2</t>
+  </si>
+  <si>
     <t>DEPRECIATION EXPENSE - OPERATION SURIGAO</t>
   </si>
   <si>
+    <t>5009A0</t>
+  </si>
+  <si>
     <t>INSURANCE EXPENSE -  SURIGAO</t>
   </si>
   <si>
+    <t>5009A3</t>
+  </si>
+  <si>
     <t>INCENTIVES - SURIGAO</t>
   </si>
   <si>
+    <t>5011A0</t>
+  </si>
+  <si>
+    <t>MEALS - SURIGAO</t>
+  </si>
+  <si>
+    <t>5012D1</t>
+  </si>
+  <si>
     <t>MECHANICAL SUPPLIES - SURIGAO</t>
   </si>
   <si>
+    <t>5013C3</t>
+  </si>
+  <si>
+    <t>MISCELLANEOUS - SURIGAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5014B3 </t>
+  </si>
+  <si>
     <t>OUTSIDE SERVICES - SURIGAO</t>
   </si>
   <si>
+    <t>5015A0</t>
+  </si>
+  <si>
     <t>OFFICE SUPPLIES - SURIGAO</t>
   </si>
   <si>
+    <t>5019B0</t>
+  </si>
+  <si>
     <t>REPAIR AND MAINTENANCE - SURIGAO</t>
+  </si>
+  <si>
+    <t>5026A0</t>
   </si>
   <si>
     <t>TRANSPO/TRAVEL - SURIGAO</t>
@@ -393,13 +453,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,147 +469,231 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>481.94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>3580510.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>60250.69</v>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>895.0799999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>35244.16</v>
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>77042.42</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
       </c>
       <c r="C5">
+        <v>171846.43</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>2009643.83</v>
+      </c>
+      <c r="D6">
         <v>925.1799999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>3883.34</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>237715.34</v>
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>19416.7</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>91250</v>
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>725013.99</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>273750</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
         <v>75045</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>27678.57</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>567952.62</v>
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>5053.82</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>12000</v>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>702678.5700000001</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>2915.18</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>803295.52</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>137000</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
         <v>3928.57</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>115000</v>
-      </c>
-      <c r="C14">
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>279438.31</v>
+      </c>
+      <c r="D17">
         <v>1035.18</v>
       </c>
     </row>
